--- a/API 명세서.xlsx
+++ b/API 명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,24 +674,111 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -705,145 +788,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1128,833 +1121,840 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:K29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:12" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="24" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="44"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="20"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="25"/>
     </row>
     <row r="51" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="6"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14" t="s">
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="44"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="46"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="9"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="9"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="12"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K27"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
+  <mergeCells count="50">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:K61"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="B33:K36"/>
@@ -1971,27 +1971,19 @@
     <mergeCell ref="B46:K49"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:K61"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="B4:K28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API 명세서.xlsx
+++ b/API 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChoeJiSang\estate_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,203 @@
   </si>
   <si>
     <t>/sign-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -v -X POST "http://localhost:4000/api/v1/auth/sign-in"\
+ -d "userId=service123"\
+ -d "userPassword=P!ssw0rd"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환하는 Response Body의 Content Type (application/json)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 결과에 대한 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 결과에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청시 사용될 JWT access token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWT access token의 만료 기간 (초 단위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 소셜 로그인으로 사용할 인증 서버를 받아와서 해당 인증 서버의 사용자 정보를 받아오고 그에 따른 로그인 및 회원가입 처리를 진행합니다. 만약 성공적으로 처리가 된다면 성공 메시지를 반환합니다. 만약 데이터베이스 작업에 실패한다면 실패 메시지를 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sns/(oauthServer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -v -X GET "http://localhost:4000/api/v1/auth/sns/${oauthServer}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{ 
+  "code": "SU",
+  "message": "Success.",
+  "accessToken": "${ACCESS_TOKEN}",
+  "expires": 3600
+}
+응답 : 실패 (토큰 생성 실패)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "TF",
+  "message": "Token creation Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 아이디를 입력받아 해당하는 아이디가 이미 사용중인 아이디인지 확인합니다. 중복되지 않은 아이디이면 성공처리를 합니다. 만약 중복되는 아이디라면 실패처리를 합니다. 데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/id-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복확인할 유저 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -v -X POST "http://localhost:4000/api/v1/auth/id-check"\
+ -d "userId=service123"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{ 
+  "code": "SU",
+  "message": "Success.",
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Request
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (중복된 아이디)
+HTTP/1.1 400 Bad Request
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DI",
+  "message": "Duplicatied Id."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 이메일을 입력받아 해당하는 이메일이 이미 사용중인 이메일인지 확인하고 사용하고 있지 않은 이메일이라면 4자리의 인증코드를 해당 이메일로 전송합니다. 이메일 전송이 성공적으로 종료되었으면 성공처리를 합니다. 만약 중복된 이메일이거나 이메일 전송에 실패했으면 실패처리를 합니다. 데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/email-auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 번호를 전송할 유저 이메일 (이메일 형태의 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -v -X POST "http://localhost:4000/api/v1/auth/email-auth"\
+ -d "useremail=email@email.com"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +399,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -229,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -655,13 +870,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,61 +1047,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,56 +1134,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L61"/>
+  <dimension ref="B2:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="B87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93:V96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,820 +1597,2361 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+    <row r="17" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+    <row r="18" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+    <row r="20" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
+    <row r="21" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+    <row r="22" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
+    <row r="23" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+    <row r="24" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+    <row r="25" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
+    <row r="26" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
+    <row r="27" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
+    <row r="28" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="s">
+    <row r="29" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:12" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+    <row r="30" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:22" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="M31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="28"/>
+    </row>
+    <row r="32" spans="2:22" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="M32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="31"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-    </row>
-    <row r="37" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="M33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="34"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="35"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="34"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="35"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="34"/>
+    </row>
+    <row r="36" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="38"/>
+    </row>
+    <row r="37" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19" t="s">
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="23" t="s">
+      <c r="H37" s="65"/>
+      <c r="I37" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
+      <c r="J37" s="68"/>
+      <c r="K37" s="69"/>
+      <c r="M37" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="63"/>
+      <c r="O37" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="65"/>
+      <c r="T37" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="68"/>
+      <c r="V37" s="69"/>
+    </row>
+    <row r="38" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="70"/>
+      <c r="M38" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="70"/>
+    </row>
+    <row r="39" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="72"/>
+      <c r="M39" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="72"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="44"/>
-    </row>
-    <row r="42" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
+      <c r="K40" s="53"/>
+      <c r="M40" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V40" s="53"/>
+    </row>
+    <row r="41" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="56"/>
+      <c r="M41" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="56"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16" t="s">
+      <c r="E42" s="43"/>
+      <c r="F42" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="44"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="12" t="s">
+      <c r="K42" s="47"/>
+      <c r="M42" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="43"/>
+      <c r="O42" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="47"/>
+    </row>
+    <row r="43" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="25"/>
+      <c r="M43" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="38"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="38"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="38"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-    </row>
-    <row r="50" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17" t="s">
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="56"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="53"/>
+      <c r="M44" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="58"/>
+    </row>
+    <row r="45" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="58"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="58"/>
+    </row>
+    <row r="47" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="32"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="58"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="61"/>
+    </row>
+    <row r="48" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="32"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58"/>
+      <c r="M48" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="26" t="s">
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="70"/>
+    </row>
+    <row r="49" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="61"/>
+      <c r="M49" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="15" t="s">
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="41"/>
+    </row>
+    <row r="50" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="70"/>
+      <c r="M50" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="N50" s="49"/>
+      <c r="O50" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V50" s="53"/>
+    </row>
+    <row r="51" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
+      <c r="M51" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="49"/>
+      <c r="O51" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V51" s="53"/>
+    </row>
+    <row r="52" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16" t="s">
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="44"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="44"/>
-    </row>
-    <row r="54" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="12" t="s">
+      <c r="K52" s="53"/>
+      <c r="M52" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="15" t="s">
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="74"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B53" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="53"/>
+      <c r="M53" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
+      <c r="N53" s="49"/>
+      <c r="O53" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
+      <c r="P53" s="49"/>
+      <c r="Q53" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16" t="s">
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="44"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="44"/>
-    </row>
-    <row r="57" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="12" t="s">
+      <c r="V53" s="53"/>
+    </row>
+    <row r="54" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="74"/>
+      <c r="M54" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="49"/>
+      <c r="O54" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V54" s="53"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="49"/>
+      <c r="F55" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="53"/>
+      <c r="M55" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="49"/>
+      <c r="O55" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V55" s="53"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="53"/>
+      <c r="M56" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="49"/>
+      <c r="O56" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V56" s="53"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="49"/>
+      <c r="F57" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="53"/>
+      <c r="M57" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" s="49"/>
+      <c r="O57" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V57" s="53"/>
+    </row>
+    <row r="58" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="49"/>
+      <c r="F58" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="53"/>
+      <c r="M58" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="38"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="38"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="38"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="41"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="74"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B59" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="53"/>
+      <c r="M59" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="34"/>
+    </row>
+    <row r="60" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="74"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="34"/>
+    </row>
+    <row r="61" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="34"/>
+    </row>
+    <row r="62" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="83"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="38"/>
+    </row>
+    <row r="63" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="82"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="83"/>
+    </row>
+    <row r="64" spans="2:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="86"/>
+    </row>
+    <row r="65" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="2:22" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B66" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="M66" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="28"/>
+    </row>
+    <row r="67" spans="2:22" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="31"/>
+      <c r="M67" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="31"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B68" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="34"/>
+      <c r="M68" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="34"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B69" s="35"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="34"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="34"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B70" s="35"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="34"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="34"/>
+    </row>
+    <row r="71" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="38"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="38"/>
+    </row>
+    <row r="72" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="63"/>
+      <c r="D72" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="66"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="65"/>
+      <c r="I72" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="68"/>
+      <c r="K72" s="69"/>
+      <c r="M72" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="63"/>
+      <c r="O72" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="67"/>
+      <c r="R72" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="65"/>
+      <c r="T72" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="U72" s="68"/>
+      <c r="V72" s="69"/>
+    </row>
+    <row r="73" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="70"/>
+      <c r="M73" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
+      <c r="U73" s="63"/>
+      <c r="V73" s="70"/>
+    </row>
+    <row r="74" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B74" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="72"/>
+      <c r="M74" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
+      <c r="V74" s="72"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B75" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="49"/>
+      <c r="D75" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="53"/>
+      <c r="M75" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="49"/>
+      <c r="O75" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V75" s="53"/>
+    </row>
+    <row r="76" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B76" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="56"/>
+      <c r="M76" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="56"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B77" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="43"/>
+      <c r="F77" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="47"/>
+      <c r="M77" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" s="43"/>
+      <c r="O77" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="V77" s="47"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="76"/>
+      <c r="F78" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="25"/>
+      <c r="M78" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="N78" s="76"/>
+      <c r="O78" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="76"/>
+      <c r="Q78" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="76"/>
+      <c r="U78" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="V78" s="25"/>
+    </row>
+    <row r="79" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B79" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="56"/>
+      <c r="M79" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="56"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B80" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="58"/>
+      <c r="M80" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="58"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="58"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B82" s="32"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="58"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="58"/>
+    </row>
+    <row r="83" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="59"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="61"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="61"/>
+    </row>
+    <row r="84" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="70"/>
+      <c r="M84" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="63"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="63"/>
+      <c r="Q84" s="63"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="63"/>
+      <c r="T84" s="63"/>
+      <c r="U84" s="63"/>
+      <c r="V84" s="70"/>
+    </row>
+    <row r="85" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B85" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41"/>
+      <c r="M85" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="41"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B86" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="53"/>
+      <c r="M86" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N86" s="49"/>
+      <c r="O86" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
+      <c r="R86" s="52"/>
+      <c r="S86" s="52"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V86" s="53"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B87" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="49"/>
+      <c r="D87" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="53"/>
+      <c r="M87" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" s="49"/>
+      <c r="O87" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V87" s="53"/>
+    </row>
+    <row r="88" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B88" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="74"/>
+      <c r="M88" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="73"/>
+      <c r="V88" s="74"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B89" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="49"/>
+      <c r="D89" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="49"/>
+      <c r="F89" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="53"/>
+      <c r="M89" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" s="49"/>
+      <c r="O89" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="52"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V89" s="53"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B90" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="49"/>
+      <c r="D90" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="49"/>
+      <c r="F90" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="53"/>
+      <c r="M90" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="49"/>
+      <c r="O90" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V90" s="53"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B91" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="49"/>
+      <c r="F91" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="53"/>
+      <c r="M91" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" s="49"/>
+      <c r="O91" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="R91" s="52"/>
+      <c r="S91" s="52"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="V91" s="53"/>
+    </row>
+    <row r="92" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B92" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="74"/>
+      <c r="M92" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92" s="73"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="73"/>
+      <c r="U92" s="73"/>
+      <c r="V92" s="74"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B93" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="34"/>
+      <c r="M93" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="34"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B94" s="35"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="34"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="34"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B95" s="35"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
+      <c r="V95" s="34"/>
+    </row>
+    <row r="96" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="38"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="205">
+    <mergeCell ref="M92:V92"/>
+    <mergeCell ref="M93:V96"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="Q90:T90"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="O87:T87"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:T89"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="M79:V79"/>
+    <mergeCell ref="M80:V83"/>
+    <mergeCell ref="M84:V84"/>
+    <mergeCell ref="M85:V85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="O86:T86"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B80:K83"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B79:K79"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B93:K96"/>
+    <mergeCell ref="B61:K64"/>
+    <mergeCell ref="M66:V66"/>
+    <mergeCell ref="M67:V67"/>
+    <mergeCell ref="M68:V71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:V72"/>
+    <mergeCell ref="M73:V73"/>
+    <mergeCell ref="M74:V74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:T75"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="M76:V76"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="M58:V58"/>
+    <mergeCell ref="M59:V62"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="M52:V52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="M43:V43"/>
+    <mergeCell ref="M44:V47"/>
+    <mergeCell ref="M48:V48"/>
+    <mergeCell ref="M49:V49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="M41:V41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U42:V42"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:I53"/>
     <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:K61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M31:V31"/>
+    <mergeCell ref="M32:V32"/>
+    <mergeCell ref="M33:V36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="M38:V38"/>
+    <mergeCell ref="M39:V39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B60:K60"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="F55:I55"/>
     <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K36"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:K57"/>
     <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="B45:K45"/>
     <mergeCell ref="B46:K49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="B4:K28"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K36"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B41:K41"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
@@ -1979,11 +3959,6 @@
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="B4:K28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
